--- a/Excelの転記/出席率_大橋校（２年：渡邉）RPA.xlsx
+++ b/Excelの転記/出席率_大橋校（２年：渡邉）RPA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\Excelの転記\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>学番</t>
     <phoneticPr fontId="3"/>
@@ -210,6 +210,9 @@
   <si>
     <t>C</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABCC</t>
   </si>
 </sst>
 </file>
@@ -2276,24 +2279,24 @@
       <c r="E9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="48">
-        <v>0.9882352941176471</v>
-      </c>
-      <c r="G9" s="48">
-        <v>0.984375</v>
-      </c>
-      <c r="H9" s="56">
-        <v>0.98623853211009171</v>
-      </c>
-      <c r="I9" s="56">
-        <v>0.9869565217391304</v>
+      <c r="F9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>32</v>
       </c>
       <c r="J9" s="56">
-        <v>0.98828125</v>
+        <v>0.98695652173912995</v>
       </c>
       <c r="K9" s="31" t="str">
         <f t="shared" ref="K9:K10" si="0">IF(G9&lt;H9,$K$3,IF(G9=H9,$K$4,$K$5))</f>
-        <v>↑</v>
+        <v>　→</v>
       </c>
       <c r="L9" s="15"/>
       <c r="N9" s="42"/>
@@ -2318,24 +2321,24 @@
       <c r="E10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="49">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="49">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="H10" s="57">
-        <v>0.76146788990825687</v>
-      </c>
-      <c r="I10" s="57">
-        <v>0.77391304347826084</v>
-      </c>
-      <c r="J10" s="57">
-        <v>0.765625</v>
+      <c r="F10" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>32</v>
       </c>
       <c r="K10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>　　↓</v>
+        <v>　→</v>
       </c>
       <c r="L10" s="16"/>
       <c r="N10" s="43"/>
@@ -2360,20 +2363,20 @@
       <c r="E11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="49">
-        <v>1</v>
-      </c>
-      <c r="G11" s="49">
-        <v>1</v>
-      </c>
-      <c r="H11" s="57">
-        <v>1</v>
-      </c>
-      <c r="I11" s="57">
-        <v>1</v>
-      </c>
-      <c r="J11" s="57">
-        <v>1</v>
+      <c r="F11" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>32</v>
       </c>
       <c r="K11" s="33" t="str">
         <f>IF(G11&lt;H11,$K$3,IF(G11=H11,$K$4,$K$5))</f>
@@ -2819,25 +2822,25 @@
       <c r="E30" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="21" t="e">
         <f>AVERAGE(F9:F29)</f>
-        <v>0.92941176470588227</v>
-      </c>
-      <c r="G30" s="21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="21" t="e">
         <f>AVERAGE(G9:G29)</f>
-        <v>0.92534722222222221</v>
-      </c>
-      <c r="H30" s="21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="21" t="e">
         <f>AVERAGE(H9:H29)</f>
-        <v>0.91590214067278286</v>
-      </c>
-      <c r="I30" s="21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="21" t="e">
         <f>AVERAGE(I9:I29)</f>
-        <v>0.92028985507246375</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J30" s="21">
         <f>AVERAGE(J9:J29)</f>
-        <v>0.91796875</v>
+        <v>0.98695652173912995</v>
       </c>
       <c r="K30" s="33" t="str">
         <f t="shared" si="2"/>
@@ -2888,9 +2891,9 @@
       <c r="R33" s="45"/>
     </row>
     <row r="34" spans="11:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K34" s="10" t="str">
+      <c r="K34" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>　　↓</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R34" s="45"/>
     </row>

--- a/Excelの転記/出席率_大橋校（２年：渡邉）RPA.xlsx
+++ b/Excelの転記/出席率_大橋校（２年：渡邉）RPA.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>学番</t>
     <phoneticPr fontId="3"/>
@@ -2375,8 +2375,8 @@
       <c r="I11" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="57" t="s">
-        <v>32</v>
+      <c r="J11" s="57">
+        <v>4</v>
       </c>
       <c r="K11" s="33" t="str">
         <f>IF(G11&lt;H11,$K$3,IF(G11=H11,$K$4,$K$5))</f>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="J30" s="21">
         <f>AVERAGE(J9:J29)</f>
-        <v>0.98695652173912995</v>
+        <v>2.4934782608695651</v>
       </c>
       <c r="K30" s="33" t="str">
         <f t="shared" si="2"/>
